--- a/size_phis.xlsx
+++ b/size_phis.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/Competitions/Pro_vs_Syn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801BF63C-76D9-7844-80BB-123011D50653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22408B1A-B52C-9B46-AE48-74360D59C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="1620" windowWidth="32320" windowHeight="17320" xr2:uid="{CFCED923-C2A6-7040-86ED-F7B24C21EAB4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{CFCED923-C2A6-7040-86ED-F7B24C21EAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="sizes_vs_params" sheetId="1" r:id="rId1"/>
     <sheet name="redox_ability" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">(sizes_vs_params!$E$3,sizes_vs_params!$E$7,sizes_vs_params!$E$8,sizes_vs_params!$E$17,sizes_vs_params!$E$18,sizes_vs_params!$E$19)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">(sizes_vs_params!$G$3,sizes_vs_params!$G$7,sizes_vs_params!$G$8,sizes_vs_params!$G$17,sizes_vs_params!$G$18,sizes_vs_params!$G$19)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">(sizes_vs_params!$H$3,sizes_vs_params!$H$7,sizes_vs_params!$H$8,sizes_vs_params!$H$17,sizes_vs_params!$H$18,sizes_vs_params!$H$19)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">(sizes_vs_params!$E$3,sizes_vs_params!$E$7,sizes_vs_params!$E$8,sizes_vs_params!$E$17,sizes_vs_params!$E$18,sizes_vs_params!$E$19)</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">(sizes_vs_params!$G$3,sizes_vs_params!$G$7,sizes_vs_params!$G$8,sizes_vs_params!$G$17,sizes_vs_params!$G$18,sizes_vs_params!$G$19)</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">(sizes_vs_params!$H$3,sizes_vs_params!$H$7,sizes_vs_params!$H$8,sizes_vs_params!$H$17,sizes_vs_params!$H$18,sizes_vs_params!$H$19)</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">(sizes_vs_params!$E$3,sizes_vs_params!$E$7,sizes_vs_params!$E$8,sizes_vs_params!$E$17,sizes_vs_params!$E$18,sizes_vs_params!$E$19)</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">(sizes_vs_params!$G$3,sizes_vs_params!$G$7,sizes_vs_params!$G$8,sizes_vs_params!$G$17,sizes_vs_params!$G$18,sizes_vs_params!$G$19)</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">(sizes_vs_params!$H$3,sizes_vs_params!$H$7,sizes_vs_params!$H$8,sizes_vs_params!$H$17,sizes_vs_params!$H$18,sizes_vs_params!$H$19)</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -584,7 +573,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB6C063F-22EF-7C49-8A5E-4E8F17DF313F}" type="CELLRANGE">
+                    <a:fld id="{5367CD42-3479-7B49-90CB-07D36F884638}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -624,7 +613,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BB2A271-5717-E64A-9284-2F915AEF6F4E}" type="CELLRANGE">
+                    <a:fld id="{8B9C1FF7-CCD5-8F44-AFFA-FF6D8954A5F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -657,7 +646,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03F13955-33CD-8D41-BF32-391D945F03D0}" type="CELLRANGE">
+                    <a:fld id="{C5AB33DA-921E-5040-8BED-1DB51730E57A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -691,7 +680,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{366789A6-E48A-5547-9736-81B88A01BB3E}" type="CELLRANGE">
+                    <a:fld id="{A8F67C3C-B036-DF44-949A-322366B858C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -725,7 +714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BDEC153-A947-F44B-9044-08ECA23CA079}" type="CELLRANGE">
+                    <a:fld id="{7959FCBA-35CE-E142-A7FF-DFE75E857EA2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -759,7 +748,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39E32C3E-90D0-9F4B-B123-B37925181EFA}" type="CELLRANGE">
+                    <a:fld id="{91DAF6BA-108E-B64D-AF38-832C97500D8F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1377,7 +1366,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27C95F47-3D55-5D4B-8C79-4EB69E5AA849}" type="CELLRANGE">
+                    <a:fld id="{26C5AF12-C3CF-3D4F-9438-4A2827AFD01F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1410,7 +1399,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFF37AB9-7FB6-DA4C-90EB-511197BBCF46}" type="CELLRANGE">
+                    <a:fld id="{39E23799-1F09-5A46-B789-81070FE23D94}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1443,7 +1432,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30B1D72D-A182-9C46-89CE-F2CB3D342565}" type="CELLRANGE">
+                    <a:fld id="{24E46CB0-E1EB-6D43-B5C3-5944DCEE76ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1482,7 +1471,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63804CBD-D67A-F540-8C86-8416CFEC96DD}" type="CELLRANGE">
+                    <a:fld id="{E677E4C7-3142-854F-BB7D-79812EEBF680}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1520,7 +1509,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47844572-A8E5-744D-8837-C97845212525}" type="CELLRANGE">
+                    <a:fld id="{26E5E997-65BF-924F-90BA-599727E42CC6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1558,7 +1547,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00B16208-938E-554F-9046-6C81C79D54F0}" type="CELLRANGE">
+                    <a:fld id="{798A6E4D-4A73-C44F-8AE6-4CC27379FA26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2166,7 +2155,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED67C2CC-6568-444D-ADF1-AFD57685FBA1}" type="CELLRANGE">
+                    <a:fld id="{D6B0C804-7A8B-9C45-8CFB-F445210905BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2206,7 +2195,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{003CD4DE-44EA-A145-8632-FDDCEBA9DBF8}" type="CELLRANGE">
+                    <a:fld id="{B803BDA2-BAFD-DC4B-9360-435A3CFA2768}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2239,7 +2228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2638F80F-D5EE-9042-90F6-2B0BA339130B}" type="CELLRANGE">
+                    <a:fld id="{BFD3181C-79E0-9848-9363-0D77B50DC5F1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2273,7 +2262,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3381E879-89D3-7E4D-AB94-3AE342BB27BE}" type="CELLRANGE">
+                    <a:fld id="{82C49F6B-AF01-164E-8E64-3BCB139AD80B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2307,7 +2296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF59CB7D-BC4A-E248-8F81-9BDFA71DD4B4}" type="CELLRANGE">
+                    <a:fld id="{F1886541-5FA5-AA48-A4E4-2142C54E579C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2341,7 +2330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5525FF8E-CE3E-B942-8AC8-09046B5D8EE1}" type="CELLRANGE">
+                    <a:fld id="{1406F138-1853-484D-8817-8F69B094812B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2959,7 +2948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F2C1F7B-0996-9A4F-82CF-930D2F337DDF}" type="CELLRANGE">
+                    <a:fld id="{DC867AA2-E669-5948-A415-02B05FD93AA7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2992,7 +2981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{757890F3-7A4E-A442-8536-9018B2CBCEFC}" type="CELLRANGE">
+                    <a:fld id="{1EE74E3C-8986-6448-B355-39F2F262EB05}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3025,7 +3014,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CFADD23-ED5F-8A49-86E0-5337E808B0B6}" type="CELLRANGE">
+                    <a:fld id="{C84EDBEF-3A9D-AF47-BC1A-46D75345E230}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3058,7 +3047,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16421CEA-530F-9F4E-9107-FA2AD6139DD7}" type="CELLRANGE">
+                    <a:fld id="{A6378D48-0551-B84B-9ADD-F96D598EA846}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3091,7 +3080,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0658A6D0-2A0A-9D47-A42C-3E8B9AF7E8CD}" type="CELLRANGE">
+                    <a:fld id="{6775BE50-34E8-0940-9600-C13BE6916FA0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3124,7 +3113,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{581DF0B7-266D-CB4F-A84C-5C6AF187D84D}" type="CELLRANGE">
+                    <a:fld id="{CED5F0BB-E8E6-9D4C-9ECD-C7A4B1862FC8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3717,7 +3706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67D33830-B962-194F-888C-5E2CADF1E6BE}" type="CELLRANGE">
+                    <a:fld id="{F6B8492B-4ECC-2048-BAC9-9A5C42E9A779}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3750,7 +3739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FB6D305-340D-1040-BB5F-4E59DAB47B68}" type="CELLRANGE">
+                    <a:fld id="{AB3AFC16-3096-A74C-AC41-CB59E6DD7117}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3783,7 +3772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B37F5BF0-5E1A-134D-86F1-C37E70528FEE}" type="CELLRANGE">
+                    <a:fld id="{FFE46664-CDA9-E84E-B095-9A95AF542ADA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3816,7 +3805,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15796F2E-DEBC-3A4A-8B27-C9609D5C0A6B}" type="CELLRANGE">
+                    <a:fld id="{D3CE343D-20A5-B74F-A855-E9840FA861BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3849,7 +3838,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E5F0BA6-31BE-CE49-ADA9-C6BBBFB698CD}" type="CELLRANGE">
+                    <a:fld id="{417F6EAB-B873-EE42-96ED-D84258BDB88D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3882,7 +3871,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E8D641B-C60B-DC49-B055-8A9EE8F7E3B6}" type="CELLRANGE">
+                    <a:fld id="{CC6FDDF1-33FD-CC47-A1A9-157CF4AAC10B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3915,7 +3904,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A5DECB8-727C-7A4A-873B-88C74E8749B3}" type="CELLRANGE">
+                    <a:fld id="{31FCDCF1-B56C-8147-AAF3-DD7AC6F311A0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7145,16 +7134,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579968</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7219,16 +7208,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>994834</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601133</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>43392</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7295,16 +7284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>791211</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>748878</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>154094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>650241</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>26034</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>768774</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>169968</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7631,7 +7620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB62AA9F-5B2C-2944-A965-47B669B8671F}">
   <dimension ref="A2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
